--- a/inst/extdata/testDatamerge2.xlsx
+++ b/inst/extdata/testDatamerge2.xlsx
@@ -77,7 +77,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,56 +101,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFE69F00"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD795A3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8C96C6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFB87D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF86DE8E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE0F090"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB0AFC5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -435,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -455,109 +413,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -882,7 +780,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -911,34 +809,34 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="29">
-        <v>1</v>
-      </c>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="34">
-        <v>1</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36" t="s">
+      <c r="B3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
         <v>2</v>
       </c>
     </row>
@@ -960,102 +858,102 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="24">
-        <v>1</v>
-      </c>
-      <c r="D5" s="25" t="s">
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="24">
-        <v>1</v>
-      </c>
-      <c r="D6" s="25" t="s">
+      <c r="C6" s="14">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="26"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="14">
         <v>2</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="14">
         <v>2</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="14">
         <v>2</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="39">
-        <v>1</v>
-      </c>
-      <c r="D10" s="40" t="s">
+      <c r="C10" s="19">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="21" t="s">
         <v>1</v>
       </c>
     </row>
